--- a/terminal/Contas.xlsx
+++ b/terminal/Contas.xlsx
@@ -33,7 +33,7 @@
     <t>Data abertura</t>
   </si>
   <si>
-    <t>adfasdfadsf</t>
+    <t>Alander</t>
   </si>
 </sst>
 </file>
@@ -403,7 +403,7 @@
         <v>0</v>
       </c>
       <c r="E2" s="1">
-        <v>43043.453518518516</v>
+        <v>43045.944594907407</v>
       </c>
     </row>
   </sheetData>
